--- a/data/trans_bre/iP13_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/iP13_R-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>10,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-14,35%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>-68,02%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>145,93%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 2,42</t>
+          <t>-10,03; 16,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 4,7</t>
+          <t>2,95; 26,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 4,08</t>
+          <t>-18,61; 2,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 3,68</t>
+          <t>-7,34; 24,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-56,61; 58,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-35,21; 136,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-39,9; 121,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-49,18; 97,14</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-60,9%</t>
+          <t>-14,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-20,4%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>75,23%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-26,59%</t>
+          <t>1,2%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; -0,13</t>
+          <t>-4,57; 2,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 2,61</t>
+          <t>-2,41; 4,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 5,8</t>
+          <t>-2,6; 4,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 2,65</t>
+          <t>-3,35; 3,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-88,97; 10,28</t>
+          <t>-56,61; 58,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-66,25; 73,41</t>
+          <t>-35,21; 136,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-27,47; 319,51</t>
+          <t>-39,9; 121,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-64,51; 50,26</t>
+          <t>-49,18; 97,14</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,88</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>24,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-48,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-68,02%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>145,93%</t>
+          <t>-9,66%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 16,46</t>
+          <t>-2,87; 5,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 26,83</t>
+          <t>-8,93; -0,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 2,63</t>
+          <t>-4,21; 4,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 24,08</t>
+          <t>-5,86; 4,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,74; 172,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,54; 3,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,38; 119,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,32; 76,77</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,45</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>24,42%</t>
+          <t>-60,9%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-48,09%</t>
+          <t>-20,4%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>75,23%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-9,66%</t>
+          <t>-26,59%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 5,83</t>
+          <t>-6,05; -0,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,93; -0,49</t>
+          <t>-5,12; 2,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 4,3</t>
+          <t>-0,72; 5,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 4,09</t>
+          <t>-6,82; 2,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-40,74; 172,69</t>
+          <t>-88,97; 10,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-75,54; 3,96</t>
+          <t>-66,25; 73,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-50,38; 119,63</t>
+          <t>-27,47; 319,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-56,32; 76,77</t>
+          <t>-64,51; 50,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP13_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/iP13_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 16,46</t>
+          <t>-12,29; 15,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 26,83</t>
+          <t>3,05; 27,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 2,63</t>
+          <t>-20,22; 2,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 5,71</t>
+          <t>-2,09; 6,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 4,66</t>
+          <t>-5,15; 5,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 4,9</t>
+          <t>-2,55; 4,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 2,64</t>
+          <t>-5,98; 2,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,53; 319,15</t>
+          <t>-50,77; 339,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,25; 135,42</t>
+          <t>-65,74; 170,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-78,03; 631,2</t>
+          <t>-79,09; 503,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-78,37; 123,8</t>
+          <t>-79,24; 147,4</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 2,42</t>
+          <t>-4,32; 2,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 4,7</t>
+          <t>-2,53; 5,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 4,08</t>
+          <t>-2,64; 4,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 3,68</t>
+          <t>-3,55; 3,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-56,61; 58,88</t>
+          <t>-55,41; 66,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,21; 136,48</t>
+          <t>-35,73; 154,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-39,9; 121,22</t>
+          <t>-41,38; 111,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-49,18; 97,14</t>
+          <t>-49,96; 92,64</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 5,83</t>
+          <t>-2,98; 5,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,93; -0,49</t>
+          <t>-9,05; -0,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 4,3</t>
+          <t>-4,2; 4,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 4,09</t>
+          <t>-5,23; 4,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,74; 172,69</t>
+          <t>-45,95; 156,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-75,54; 3,96</t>
+          <t>-76,35; 6,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-50,38; 119,63</t>
+          <t>-52,33; 102,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-56,32; 76,77</t>
+          <t>-50,82; 90,09</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,05; -0,13</t>
+          <t>-5,83; -0,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 2,61</t>
+          <t>-5,08; 2,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 5,8</t>
+          <t>-0,71; 5,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 2,65</t>
+          <t>-6,98; 2,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-88,97; 10,28</t>
+          <t>-88,2; 10,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-66,25; 73,41</t>
+          <t>-64,07; 61,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,47; 319,51</t>
+          <t>-26,51; 336,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-64,51; 50,26</t>
+          <t>-63,92; 56,14</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 1,39</t>
+          <t>-2,31; 1,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 1,56</t>
+          <t>-2,93; 1,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,67</t>
+          <t>-1,03; 2,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 1,56</t>
+          <t>-2,87; 1,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,22; 31,18</t>
+          <t>-39,77; 31,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,97; 31,39</t>
+          <t>-39,74; 26,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,21; 74,36</t>
+          <t>-21,3; 72,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,65; 29,94</t>
+          <t>-37,77; 30,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP13_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/iP13_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 15,29</t>
+          <t>-10,28; 15,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 27,13</t>
+          <t>1,42; 27,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 2,61</t>
+          <t>-23,52; 2,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 24,08</t>
+          <t>-8,28; 23,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 6,39</t>
+          <t>-2,3; 6,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 5,39</t>
+          <t>-5,31; 4,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 4,53</t>
+          <t>-2,25; 4,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 2,85</t>
+          <t>-5,68; 3,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,77; 339,59</t>
+          <t>-57,12; 341,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-65,74; 170,11</t>
+          <t>-68,56; 156,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-79,09; 503,55</t>
+          <t>-70,81; 658,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-79,24; 147,4</t>
+          <t>-76,63; 146,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 2,67</t>
+          <t>-4,19; 2,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 5,12</t>
+          <t>-2,73; 4,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 4,11</t>
+          <t>-2,69; 4,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 3,4</t>
+          <t>-3,31; 3,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-55,41; 66,05</t>
+          <t>-55,04; 67,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,73; 154,54</t>
+          <t>-39,24; 128,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-41,38; 111,61</t>
+          <t>-38,62; 133,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-49,96; 92,64</t>
+          <t>-49,12; 96,22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 5,45</t>
+          <t>-2,88; 5,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,05; -0,04</t>
+          <t>-9,1; -0,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 4,07</t>
+          <t>-4,31; 4,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 4,5</t>
+          <t>-5,97; 4,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,95; 156,92</t>
+          <t>-40,82; 170,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-76,35; 6,32</t>
+          <t>-78,95; -3,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-52,33; 102,13</t>
+          <t>-53,72; 133,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,82; 90,09</t>
+          <t>-57,43; 78,09</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,83; -0,08</t>
+          <t>-5,88; -0,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 2,15</t>
+          <t>-5,08; 2,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 5,95</t>
+          <t>-0,75; 6,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 2,48</t>
+          <t>-6,69; 2,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-88,2; 10,43</t>
+          <t>-90,28; 9,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-64,07; 61,96</t>
+          <t>-65,8; 70,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-26,51; 336,16</t>
+          <t>-24,54; 335,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-63,92; 56,14</t>
+          <t>-65,19; 48,7</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,26</t>
+          <t>-2,34; 1,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,39</t>
+          <t>-2,87; 1,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,62</t>
+          <t>-0,91; 2,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,64</t>
+          <t>-2,82; 1,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,77; 31,39</t>
+          <t>-39,87; 27,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,74; 26,28</t>
+          <t>-38,22; 24,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 72,0</t>
+          <t>-18,06; 76,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,77; 30,47</t>
+          <t>-36,94; 32,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP13_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/iP13_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,88</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>39,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>31,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-68,02%</t>
+          <t>-6,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>145,93%</t>
+          <t>4,78%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 15,49</t>
+          <t>-2,33; 5,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 27,03</t>
+          <t>-2,84; 6,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,52; 2,7</t>
+          <t>-3,97; 3,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 23,72</t>
+          <t>-4,22; 4,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,97; 250,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,22; 217,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,5; 223,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,31; 197,94</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>49,0%</t>
+          <t>-14,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,95%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,27%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-24,45%</t>
+          <t>4,3%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 6,31</t>
+          <t>-4,57; 2,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 4,82</t>
+          <t>-2,41; 4,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 4,57</t>
+          <t>-2,6; 4,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 3,06</t>
+          <t>-3,15; 3,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,12; 341,45</t>
+          <t>-56,61; 58,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-68,56; 156,36</t>
+          <t>-35,21; 136,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,81; 658,77</t>
+          <t>-39,9; 121,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-76,63; 146,36</t>
+          <t>-47,2; 101,92</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-14,35%</t>
+          <t>24,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>-48,09%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>-19,41%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 2,66</t>
+          <t>-2,87; 5,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 4,75</t>
+          <t>-8,93; -0,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 4,32</t>
+          <t>-4,21; 4,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 3,6</t>
+          <t>-6,55; 3,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-55,04; 67,61</t>
+          <t>-40,74; 172,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,24; 128,16</t>
+          <t>-75,54; 3,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-38,62; 133,72</t>
+          <t>-50,38; 119,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-49,12; 96,22</t>
+          <t>-64,07; 68,75</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,45</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,42%</t>
+          <t>-60,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-48,09%</t>
+          <t>-20,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>75,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-9,66%</t>
+          <t>-27,06%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 5,67</t>
+          <t>-6,05; -0,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,1; -0,36</t>
+          <t>-5,12; 2,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 4,45</t>
+          <t>-0,72; 5,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 4,19</t>
+          <t>-6,89; 2,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,82; 170,54</t>
+          <t>-88,97; 10,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,95; -3,35</t>
+          <t>-66,25; 73,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-53,72; 133,2</t>
+          <t>-27,47; 319,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-57,43; 78,09</t>
+          <t>-65,03; 46,86</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-60,9%</t>
+          <t>-10,68%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-20,4%</t>
+          <t>-11,47%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>75,23%</t>
+          <t>19,18%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-26,59%</t>
+          <t>-11,53%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,88; -0,23</t>
+          <t>-2,21; 1,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 2,27</t>
+          <t>-2,57; 1,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 6,15</t>
+          <t>-0,82; 2,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 2,34</t>
+          <t>-2,91; 1,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-90,28; 9,69</t>
+          <t>-38,22; 31,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-65,8; 70,09</t>
+          <t>-36,97; 31,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-24,54; 335,75</t>
+          <t>-17,21; 74,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-65,19; 48,7</t>
+          <t>-39,13; 29,26</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,53</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,7</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,68</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-10,68%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-11,47%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>19,18%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-10,47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-2,34; 1,13</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,87; 1,23</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,91; 2,71</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-2,82; 1,64</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-39,87; 27,52</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-38,22; 24,0</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-18,06; 76,1</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-36,94; 32,57</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
